--- a/docs/db.xlsx
+++ b/docs/db.xlsx
@@ -408,7 +408,7 @@
   <dimension ref="E8:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
